--- a/Doc/融创接口/设计协同项目/设计协同项目原型审批PDM字段.xlsx
+++ b/Doc/融创接口/设计协同项目/设计协同项目原型审批PDM字段.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0CAD\Project\融创\Code\Doc\融创接口\设计协同项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119583C2-3E06-4367-9FA9-CB9619CED302}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63726FF0-6118-4AAD-AC36-F01CE30080F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -795,23 +795,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>419537</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>94498</xdr:rowOff>
+      <xdr:rowOff>21771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>527916</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>18936</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
+        <xdr:cNvPr id="12" name="图片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60CE7B32-4F49-41DF-B100-016ACB1AB5CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713F1C3C-14FF-4D00-87DA-38ACEB7580CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -827,8 +827,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17254975" y="6690561"/>
-          <a:ext cx="7442629" cy="4096502"/>
+          <a:off x="8567057" y="6117771"/>
+          <a:ext cx="6713650" cy="5344886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -839,23 +839,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>6775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>200686</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>28059</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>23281</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>110836</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6">
+        <xdr:cNvPr id="13" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB52E06-615F-440F-8BEC-776D099BDCE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB724E3-708B-4D4D-B335-BB6EF3E7CF07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -871,8 +871,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9507963" y="6582436"/>
-          <a:ext cx="7375099" cy="5399498"/>
+          <a:off x="15863455" y="6470073"/>
+          <a:ext cx="6728881" cy="4003963"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -883,23 +883,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>41556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>120515</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:colOff>29953</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>180101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC0992F-12B7-4304-BF40-580B34D9FF8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77289282-6E5F-40BF-96F5-BE4D3EB27EB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -915,8 +915,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9497786" y="12722678"/>
-          <a:ext cx="7618050" cy="3633107"/>
+          <a:off x="8548255" y="11762501"/>
+          <a:ext cx="6735553" cy="3629891"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -928,22 +928,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27702</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>190530</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>131980</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
+        <xdr:cNvPr id="15" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC430C9-9FC4-40D5-BDD3-F45CF8A35A83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB4111E-20C3-4BC3-91C1-19BB6F5999C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,8 +959,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17502188" y="13239750"/>
-          <a:ext cx="7262812" cy="3833843"/>
+          <a:off x="15877310" y="11748647"/>
+          <a:ext cx="6691745" cy="3595624"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -978,16 +978,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>41272</xdr:rowOff>
+      <xdr:colOff>27709</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>79766</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
+        <xdr:cNvPr id="16" name="图片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90CED8B7-B456-4317-BBD6-ED04646BADEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC890F38-A2C3-42E9-8330-FCEF8749703C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1003,8 +1003,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9501188" y="17097375"/>
-          <a:ext cx="7500937" cy="3898897"/>
+          <a:off x="8548255" y="15600218"/>
+          <a:ext cx="6733309" cy="3765075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1015,23 +1015,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>666752</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>538584</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>82226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
+        <xdr:cNvPr id="17" name="图片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C1C55F1-57E3-40D1-8C37-909BDD8BDF1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7898F5B7-3610-49FE-AEFC-EE0D895B2F8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1047,8 +1047,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17662073" y="16437429"/>
-          <a:ext cx="7355761" cy="3769178"/>
+          <a:off x="15863455" y="15988145"/>
+          <a:ext cx="6705600" cy="3961499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1060,22 +1060,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>88448</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>214311</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>188256</xdr:rowOff>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>176492</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7">
+        <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65F6E7A-13B7-4CBF-9F82-997122224298}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E1F7CF1-4C9B-4B0B-8FA4-1B5AFC1E38AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1091,8 +1091,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9501188" y="21472073"/>
-          <a:ext cx="7548561" cy="4171746"/>
+          <a:off x="8548256" y="19673455"/>
+          <a:ext cx="6719454" cy="3861801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1104,22 +1104,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>213076</xdr:rowOff>
+      <xdr:colOff>593532</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8">
+        <xdr:cNvPr id="19" name="图片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3D01C3-9338-4D06-8B39-46EAE124365D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A1F597-D82C-4275-9482-1A9CD85EA411}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1135,8 +1135,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17502189" y="21597939"/>
-          <a:ext cx="7191373" cy="3856387"/>
+          <a:off x="15863455" y="20061383"/>
+          <a:ext cx="6689532" cy="3740726"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1147,23 +1147,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>305868</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>189277</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9">
+        <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB7C94A9-F1EE-4223-BE13-722A1BA9B4A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C56B54-C798-4B0D-B007-9EBC049A599A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1179,8 +1179,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9453563" y="25860375"/>
-          <a:ext cx="7687743" cy="3786187"/>
+          <a:off x="8548256" y="23746691"/>
+          <a:ext cx="6719454" cy="3486659"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1193,21 +1193,21 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>21845</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:colOff>13854</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>55663</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10">
+        <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77C7DDC1-9897-448A-8D73-2F91185066C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4396A171-3E87-4B24-A4D8-1927DBCA98C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1223,8 +1223,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17502188" y="25884189"/>
-          <a:ext cx="7356095" cy="3833812"/>
+          <a:off x="15863455" y="24134618"/>
+          <a:ext cx="6719454" cy="3740972"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1501,24 +1501,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V113" sqref="V113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="2"/>
-    <col min="7" max="7" width="11.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="37.375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="17.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="11.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>2</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>3</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>4</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="2:8" ht="33" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>5</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>6</v>
       </c>
@@ -1670,7 +1670,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>147</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>1</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="33" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>2</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="165" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" ht="156" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>3</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>4</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>5</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>6</v>
       </c>
@@ -1816,7 +1816,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>7</v>
       </c>
@@ -1833,7 +1833,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
@@ -1844,7 +1844,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>94</v>
       </c>
@@ -1855,7 +1855,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>1</v>
       </c>
@@ -1895,7 +1895,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>2</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>3</v>
       </c>
@@ -1931,7 +1931,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>4</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>5</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>6</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>7</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>8</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>9</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>10</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>11</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="33" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>12</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>13</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <v>14</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
         <v>15</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
         <v>95</v>
       </c>
@@ -2184,7 +2184,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>1</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
         <v>1</v>
       </c>
@@ -2224,7 +2224,7 @@
       <c r="G42" s="7"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
         <v>2</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <v>3</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="G44" s="7"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
         <v>4</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="7">
         <v>5</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="7">
         <v>6</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="7">
         <v>7</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
         <v>8</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
         <v>9</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
         <v>10</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
         <v>104</v>
       </c>
@@ -2404,7 +2404,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>1</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="7">
         <v>1</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="7">
         <v>2</v>
       </c>
@@ -2463,7 +2463,7 @@
       <c r="G58" s="7"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -2472,7 +2472,7 @@
       <c r="G59" s="7"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
         <v>96</v>
       </c>
@@ -2483,7 +2483,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>1</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="7">
         <v>1</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="7">
         <v>2</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -2553,7 +2553,7 @@
       <c r="G66" s="7"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
         <v>108</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
         <v>1</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="7">
         <v>1</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="7">
         <v>2</v>
       </c>
@@ -2623,7 +2623,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="7">
         <v>3</v>
       </c>
@@ -2640,7 +2640,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="7">
         <v>4</v>
       </c>
@@ -2657,7 +2657,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="7">
         <v>5</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="14" t="s">
         <v>109</v>
       </c>
@@ -2685,7 +2685,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
         <v>1</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="7">
         <v>1</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="7">
         <v>2</v>
       </c>
@@ -2744,7 +2744,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="7">
         <v>3</v>
       </c>
@@ -2761,7 +2761,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="7">
         <v>4</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="7">
         <v>5</v>
       </c>
@@ -2797,7 +2797,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="7">
         <v>6</v>
       </c>
@@ -2814,7 +2814,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="7">
         <v>7</v>
       </c>
@@ -2831,7 +2831,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="7">
         <v>8</v>
       </c>
@@ -2848,7 +2848,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="14" t="s">
         <v>129</v>
       </c>
@@ -2859,7 +2859,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
         <v>1</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="7">
         <v>1</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="7">
         <v>2</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="7">
         <v>3</v>
       </c>
@@ -2935,7 +2935,7 @@
       <c r="G94" s="7"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="7">
         <v>4</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="G95" s="7"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="7">
         <v>5</v>
       </c>
@@ -2969,7 +2969,7 @@
       <c r="G96" s="7"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="14" t="s">
         <v>130</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
         <v>1</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="7">
         <v>1</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="7">
         <v>2</v>
       </c>
@@ -3039,7 +3039,7 @@
       <c r="G102" s="7"/>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="7">
         <v>3</v>
       </c>
@@ -3056,7 +3056,7 @@
       <c r="G103" s="7"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="7">
         <v>4</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="7">
         <v>5</v>
       </c>
@@ -3092,7 +3092,7 @@
       <c r="G105" s="7"/>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="7">
         <v>6</v>
       </c>
@@ -3109,7 +3109,7 @@
       <c r="G106" s="7"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="7">
         <v>7</v>
       </c>
@@ -3126,7 +3126,7 @@
       <c r="G107" s="7"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="14" t="s">
         <v>137</v>
       </c>
@@ -3137,7 +3137,7 @@
       <c r="G110" s="14"/>
       <c r="H110" s="14"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="4" t="s">
         <v>1</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="7">
         <v>1</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="14" t="s">
         <v>141</v>
       </c>
@@ -3190,7 +3190,7 @@
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="4" t="s">
         <v>1</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="7">
         <v>1</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="7">
         <v>2</v>
       </c>
@@ -3249,7 +3249,7 @@
       <c r="G118" s="7"/>
       <c r="H118" s="9"/>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="7">
         <v>3</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="G119" s="7"/>
       <c r="H119" s="9"/>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="7">
         <v>4</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="G120" s="7"/>
       <c r="H120" s="9"/>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="7">
         <v>5</v>
       </c>
